--- a/Inputs/Medgulf_Nextcare/info.xlsx
+++ b/Inputs/Medgulf_Nextcare/info.xlsx
@@ -49,13 +49,13 @@
     <t xml:space="preserve">medgulf_nextcare</t>
   </si>
   <si>
-    <t xml:space="preserve">NE_Dubai/AbuDhabi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD</t>
+    <t xml:space="preserve">NE_Dubai/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED</t>
   </si>
   <si>
     <t xml:space="preserve">Annually/</t>
@@ -75,7 +75,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -96,11 +96,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -151,7 +146,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -172,11 +167,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -200,10 +191,10 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.43"/>
@@ -245,9 +236,9 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3.6725</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -259,7 +250,7 @@
       <c r="G2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
